--- a/covid19/data_covid19_msis_by_location_2021-01-06.xlsx
+++ b/covid19/data_covid19_msis_by_location_2021-01-06.xlsx
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>14322</v>
+        <v>14456</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
         <v>693494</v>
       </c>
       <c r="O2">
-        <v>2065.194507811171</v>
+        <v>2084.516953282941</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>2528</v>
+        <v>2606</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>479892</v>
       </c>
       <c r="O3">
-        <v>526.785193335167</v>
+        <v>543.0388504080084</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>972</v>
+        <v>984</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         <v>265238</v>
       </c>
       <c r="O4">
-        <v>366.4633272758805</v>
+        <v>370.9875658842248</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -654,7 +654,7 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
         <v>241235</v>
       </c>
       <c r="O5">
-        <v>296.3914854809626</v>
+        <v>302.6094886728708</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>16626</v>
+        <v>16750</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>1241165</v>
       </c>
       <c r="O6">
-        <v>1339.547924732006</v>
+        <v>1349.538538389336</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>2874</v>
+        <v>2883</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>371385</v>
       </c>
       <c r="O7">
-        <v>773.8600105012318</v>
+        <v>776.283371703219</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>2372</v>
+        <v>2435</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>419396</v>
       </c>
       <c r="O8">
-        <v>565.5752558441187</v>
+        <v>580.5968583391353</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>307231</v>
       </c>
       <c r="O9">
-        <v>403.6051049536017</v>
+        <v>407.1854728201256</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -984,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>5726</v>
+        <v>5734</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
         <v>636531</v>
       </c>
       <c r="O10">
-        <v>899.5634148219018</v>
+        <v>900.8202271374057</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2710</v>
+        <v>2741</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1098,7 +1098,7 @@
         <v>468702</v>
       </c>
       <c r="O11">
-        <v>578.1925402494549</v>
+        <v>584.8065508574745</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1164,7 +1164,7 @@
         <v>243311</v>
       </c>
       <c r="O12">
-        <v>422.5045312377985</v>
+        <v>425.7925042435402</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
@@ -1182,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>14320</v>
+        <v>14454</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
         <v>693494</v>
       </c>
       <c r="O13">
-        <v>2064.906113102637</v>
+        <v>2084.228558574407</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1248,7 +1248,7 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         <v>14811</v>
       </c>
       <c r="O14">
-        <v>506.3803929511849</v>
+        <v>513.1321315238674</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1314,7 +1314,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>969</v>
+        <v>1005</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1362,7 +1362,7 @@
         <v>143574</v>
       </c>
       <c r="O15">
-        <v>674.9132851351916</v>
+        <v>699.9874629111121</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
         <v>79537</v>
       </c>
       <c r="O17">
-        <v>422.4448998579277</v>
+        <v>445.075876636031</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>19588</v>
       </c>
       <c r="O22">
-        <v>571.7786399836634</v>
+        <v>581.9889728405146</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>18916</v>
       </c>
       <c r="O23">
-        <v>354.1975047578769</v>
+        <v>375.3436244449144</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>27153</v>
       </c>
       <c r="O25">
-        <v>618.7161639597834</v>
+        <v>648.1788384340589</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2088,7 +2088,7 @@
         <v>11221</v>
       </c>
       <c r="O26">
-        <v>490.1523928348632</v>
+        <v>499.0642545227698</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>12968</v>
       </c>
       <c r="O27">
-        <v>400.9870450339297</v>
+        <v>424.1209130166564</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="C34">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         <v>42186</v>
       </c>
       <c r="O34">
-        <v>357.9386526335751</v>
+        <v>369.7909258995875</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2880,7 +2880,7 @@
         <v>31967</v>
       </c>
       <c r="O38">
-        <v>431.6951856602121</v>
+        <v>434.8234116432571</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>66258</v>
       </c>
       <c r="O39">
-        <v>372.7851731111715</v>
+        <v>384.8591868151771</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -3228,7 +3228,7 @@
         <v>2</v>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         <v>5175</v>
       </c>
       <c r="O44">
-        <v>135.2657004830918</v>
+        <v>154.5893719806763</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>2</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         <v>3507</v>
       </c>
       <c r="O59">
-        <v>456.2303963501568</v>
+        <v>484.7447961220416</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>10473</v>
       </c>
       <c r="O60">
-        <v>486.96648524778</v>
+        <v>496.5148477036188</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>52357</v>
       </c>
       <c r="O63">
-        <v>332.3337853582138</v>
+        <v>341.8836067765533</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -4944,7 +4944,7 @@
         <v>2</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4992,7 +4992,7 @@
         <v>1777</v>
       </c>
       <c r="O70">
-        <v>112.549240292628</v>
+        <v>168.823860438942</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -5208,7 +5208,7 @@
         <v>2</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>1482</v>
       </c>
       <c r="O74">
-        <v>67.47638326585695</v>
+        <v>202.4291497975709</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>2</v>
       </c>
       <c r="C79">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>26184</v>
       </c>
       <c r="O79">
-        <v>626.3366941643752</v>
+        <v>637.7940727161625</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="C82">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         <v>1213</v>
       </c>
       <c r="O82">
-        <v>906.8425391591096</v>
+        <v>989.282769991756</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6840,7 +6840,7 @@
         <v>2569</v>
       </c>
       <c r="O98">
-        <v>155.7026080186843</v>
+        <v>194.6282600233554</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
@@ -7122,7 +7122,7 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7170,7 +7170,7 @@
         <v>2766</v>
       </c>
       <c r="O103">
-        <v>759.2190889370933</v>
+        <v>831.5256688358641</v>
       </c>
       <c r="P103" t="inlineStr">
         <is>
@@ -7254,7 +7254,7 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>49273</v>
       </c>
       <c r="O105">
-        <v>1619.548231282853</v>
+        <v>1633.754794715158</v>
       </c>
       <c r="P105" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7368,7 +7368,7 @@
         <v>56732</v>
       </c>
       <c r="O106">
-        <v>1958.330395543961</v>
+        <v>1963.618416414017</v>
       </c>
       <c r="P106" t="inlineStr">
         <is>
@@ -7386,7 +7386,7 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>1647</v>
+        <v>1662</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>82385</v>
       </c>
       <c r="O107">
-        <v>1999.150330764095</v>
+        <v>2017.357528676337</v>
       </c>
       <c r="P107" t="inlineStr">
         <is>
@@ -7452,7 +7452,7 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>2043</v>
+        <v>2052</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7500,7 +7500,7 @@
         <v>101386</v>
       </c>
       <c r="O108">
-        <v>2015.071114355039</v>
+        <v>2023.948079616515</v>
       </c>
       <c r="P108" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>2</v>
       </c>
       <c r="C109">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7566,7 +7566,7 @@
         <v>27723</v>
       </c>
       <c r="O109">
-        <v>1489.737762868376</v>
+        <v>1525.808895141218</v>
       </c>
       <c r="P109" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="C110">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7632,7 +7632,7 @@
         <v>30641</v>
       </c>
       <c r="O110">
-        <v>822.4274664664991</v>
+        <v>825.6910675239059</v>
       </c>
       <c r="P110" t="inlineStr">
         <is>
@@ -7650,7 +7650,7 @@
         <v>2</v>
       </c>
       <c r="C111">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>4668</v>
       </c>
       <c r="O111">
-        <v>749.7857754927163</v>
+        <v>792.630676949443</v>
       </c>
       <c r="P111" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         <v>2</v>
       </c>
       <c r="C116">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>8255</v>
       </c>
       <c r="O116">
-        <v>1187.159297395518</v>
+        <v>1296.1841308298</v>
       </c>
       <c r="P116" t="inlineStr">
         <is>
@@ -8178,7 +8178,7 @@
         <v>2</v>
       </c>
       <c r="C119">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8226,7 +8226,7 @@
         <v>18042</v>
       </c>
       <c r="O119">
-        <v>953.3311162842257</v>
+        <v>958.87373905332</v>
       </c>
       <c r="P119" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>2</v>
       </c>
       <c r="C120">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8292,7 +8292,7 @@
         <v>59288</v>
       </c>
       <c r="O120">
-        <v>1194.170827148833</v>
+        <v>1204.290918904331</v>
       </c>
       <c r="P120" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
         <v>2</v>
       </c>
       <c r="C122">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>15877</v>
       </c>
       <c r="O122">
-        <v>768.4071298104176</v>
+        <v>781.003968004031</v>
       </c>
       <c r="P122" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>2</v>
       </c>
       <c r="C123">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8490,7 +8490,7 @@
         <v>19616</v>
       </c>
       <c r="O123">
-        <v>1029.771615008157</v>
+        <v>1034.869494290375</v>
       </c>
       <c r="P123" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>2</v>
       </c>
       <c r="C124">
-        <v>1494</v>
+        <v>1507</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>127731</v>
       </c>
       <c r="O124">
-        <v>1169.645583296146</v>
+        <v>1179.82322224049</v>
       </c>
       <c r="P124" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>2</v>
       </c>
       <c r="C125">
-        <v>984</v>
+        <v>992</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>94441</v>
       </c>
       <c r="O125">
-        <v>1041.920352389322</v>
+        <v>1050.391249563219</v>
       </c>
       <c r="P125" t="inlineStr">
         <is>
@@ -8706,7 +8706,7 @@
         <v>2</v>
       </c>
       <c r="C127">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>18530</v>
       </c>
       <c r="O127">
-        <v>1581.219643820831</v>
+        <v>1618.996222342148</v>
       </c>
       <c r="P127" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="C128">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8820,7 +8820,7 @@
         <v>11110</v>
       </c>
       <c r="O128">
-        <v>1512.151215121512</v>
+        <v>1530.15301530153</v>
       </c>
       <c r="P128" t="inlineStr">
         <is>
@@ -8838,7 +8838,7 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8886,7 +8886,7 @@
         <v>41460</v>
       </c>
       <c r="O129">
-        <v>1970.574047274481</v>
+        <v>1972.986010612639</v>
       </c>
       <c r="P129" t="inlineStr">
         <is>
@@ -8904,7 +8904,7 @@
         <v>2</v>
       </c>
       <c r="C130">
-        <v>1451</v>
+        <v>1458</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>85983</v>
       </c>
       <c r="O130">
-        <v>1687.542886384518</v>
+        <v>1695.684030564181</v>
       </c>
       <c r="P130" t="inlineStr">
         <is>
@@ -8970,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="C131">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9018,7 +9018,7 @@
         <v>24249</v>
       </c>
       <c r="O131">
-        <v>1171.182316796569</v>
+        <v>1183.553960988082</v>
       </c>
       <c r="P131" t="inlineStr">
         <is>
@@ -9102,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="C133">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>39625</v>
       </c>
       <c r="O133">
-        <v>1304.731861198738</v>
+        <v>1317.350157728707</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
@@ -9234,7 +9234,7 @@
         <v>2</v>
       </c>
       <c r="C135">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9282,7 +9282,7 @@
         <v>25436</v>
       </c>
       <c r="O135">
-        <v>919.9559679194842</v>
+        <v>927.8188394401635</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
@@ -9432,7 +9432,7 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>6799</v>
       </c>
       <c r="O138">
-        <v>956.0229445506692</v>
+        <v>1000.147080453008</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
@@ -9960,7 +9960,7 @@
         <v>2</v>
       </c>
       <c r="C146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10008,7 +10008,7 @@
         <v>2212</v>
       </c>
       <c r="O146">
-        <v>452.0795660036167</v>
+        <v>542.49547920434</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
@@ -10158,7 +10158,7 @@
         <v>2</v>
       </c>
       <c r="C149">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>26811</v>
       </c>
       <c r="O149">
-        <v>1421.058520756406</v>
+        <v>1439.70758270859</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
@@ -10554,7 +10554,7 @@
         <v>2</v>
       </c>
       <c r="C155">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10602,7 +10602,7 @@
         <v>17829</v>
       </c>
       <c r="O155">
-        <v>953.5027202871726</v>
+        <v>959.1115598182736</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
@@ -10686,7 +10686,7 @@
         <v>2</v>
       </c>
       <c r="C157">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>28345</v>
       </c>
       <c r="O157">
-        <v>1068.971599929441</v>
+        <v>1083.08343623214</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
@@ -11082,7 +11082,7 @@
         <v>2</v>
       </c>
       <c r="C163">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11130,7 +11130,7 @@
         <v>7905</v>
       </c>
       <c r="O163">
-        <v>759.0132827324478</v>
+        <v>771.6635041113219</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
@@ -13194,7 +13194,7 @@
         <v>2</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13242,7 +13242,7 @@
         <v>2954</v>
       </c>
       <c r="O195">
-        <v>67.70480704129993</v>
+        <v>135.4096140825999</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
@@ -13392,7 +13392,7 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13440,7 +13440,7 @@
         <v>2125</v>
       </c>
       <c r="O198">
-        <v>658.8235294117648</v>
+        <v>705.8823529411765</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -13590,7 +13590,7 @@
         <v>2</v>
       </c>
       <c r="C201">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13638,7 +13638,7 @@
         <v>27351</v>
       </c>
       <c r="O201">
-        <v>329.0556103981573</v>
+        <v>336.3679572958941</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -13722,7 +13722,7 @@
         <v>2</v>
       </c>
       <c r="C203">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>56293</v>
       </c>
       <c r="O203">
-        <v>545.3608796830868</v>
+        <v>557.7958183077825</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
@@ -13788,7 +13788,7 @@
         <v>2</v>
       </c>
       <c r="C204">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>63764</v>
       </c>
       <c r="O204">
-        <v>429.7095539803024</v>
+        <v>451.6655165924346</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>2</v>
       </c>
       <c r="C205">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13902,7 +13902,7 @@
         <v>47204</v>
       </c>
       <c r="O205">
-        <v>436.4036946021524</v>
+        <v>446.9960172866706</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -13920,7 +13920,7 @@
         <v>2</v>
       </c>
       <c r="C206">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         <v>36397</v>
       </c>
       <c r="O206">
-        <v>785.7790477237135</v>
+        <v>807.7588812264747</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
@@ -13986,7 +13986,7 @@
         <v>2</v>
       </c>
       <c r="C207">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14034,7 +14034,7 @@
         <v>54942</v>
       </c>
       <c r="O207">
-        <v>1255.869826362346</v>
+        <v>1288.631647919624</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         <v>2</v>
       </c>
       <c r="C208">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14100,7 +14100,7 @@
         <v>13049</v>
       </c>
       <c r="O208">
-        <v>153.2684496896314</v>
+        <v>168.5952946585945</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
@@ -14118,7 +14118,7 @@
         <v>2</v>
       </c>
       <c r="C209">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14166,7 +14166,7 @@
         <v>26730</v>
       </c>
       <c r="O209">
-        <v>370.3703703703704</v>
+        <v>377.8526000748223</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>2</v>
       </c>
       <c r="C211">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14298,7 +14298,7 @@
         <v>14061</v>
       </c>
       <c r="O211">
-        <v>483.6071403171894</v>
+        <v>490.7190100277363</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         <v>2</v>
       </c>
       <c r="C212">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14364,7 +14364,7 @@
         <v>10380</v>
       </c>
       <c r="O212">
-        <v>289.0173410404624</v>
+        <v>327.5529865125241</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
@@ -15174,7 +15174,7 @@
         <v>2</v>
       </c>
       <c r="C225">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15222,7 +15222,7 @@
         <v>23544</v>
       </c>
       <c r="O225">
-        <v>178.3893985728848</v>
+        <v>182.6367652055725</v>
       </c>
       <c r="P225" t="inlineStr">
         <is>
@@ -15240,7 +15240,7 @@
         <v>2</v>
       </c>
       <c r="C226">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15288,7 +15288,7 @@
         <v>44999</v>
       </c>
       <c r="O226">
-        <v>388.8975310562457</v>
+        <v>393.342074268317</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
@@ -15306,7 +15306,7 @@
         <v>2</v>
       </c>
       <c r="C227">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15354,7 +15354,7 @@
         <v>111633</v>
       </c>
       <c r="O227">
-        <v>467.6036655827578</v>
+        <v>472.0826278967689</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
@@ -15372,7 +15372,7 @@
         <v>2</v>
       </c>
       <c r="C228">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15420,7 +15420,7 @@
         <v>23046</v>
       </c>
       <c r="O228">
-        <v>412.2190401805086</v>
+        <v>416.5581879718823</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
@@ -15702,7 +15702,7 @@
         <v>2</v>
       </c>
       <c r="C233">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15750,7 +15750,7 @@
         <v>6053</v>
       </c>
       <c r="O233">
-        <v>181.7280687262515</v>
+        <v>198.2488022468198</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
@@ -16494,7 +16494,7 @@
         <v>2</v>
       </c>
       <c r="C245">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>10365</v>
       </c>
       <c r="O245">
-        <v>906.8982151471298</v>
+        <v>916.5460684997588</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
@@ -16758,7 +16758,7 @@
         <v>2</v>
       </c>
       <c r="C249">
-        <v>3906</v>
+        <v>3911</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>283929</v>
       </c>
       <c r="O249">
-        <v>1375.696036685228</v>
+        <v>1377.457040316417</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
@@ -17088,7 +17088,7 @@
         <v>2</v>
       </c>
       <c r="C254">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         <v>18759</v>
       </c>
       <c r="O254">
-        <v>708.9930166853244</v>
+        <v>714.3237912468682</v>
       </c>
       <c r="P254" t="inlineStr">
         <is>
@@ -17946,7 +17946,7 @@
         <v>2</v>
       </c>
       <c r="C267">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17994,7 +17994,7 @@
         <v>29553</v>
       </c>
       <c r="O267">
-        <v>869.6240652387237</v>
+        <v>873.0078164653335</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>2</v>
       </c>
       <c r="C291">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19578,7 +19578,7 @@
         <v>7130</v>
       </c>
       <c r="O291">
-        <v>364.656381486676</v>
+        <v>378.6816269284712</v>
       </c>
       <c r="P291" t="inlineStr">
         <is>
@@ -19596,7 +19596,7 @@
         <v>2</v>
       </c>
       <c r="C292">
-        <v>1681</v>
+        <v>1702</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>205163</v>
       </c>
       <c r="O292">
-        <v>819.3485180076329</v>
+        <v>829.5842817662054</v>
       </c>
       <c r="P292" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>2</v>
       </c>
       <c r="C293">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19710,7 +19710,7 @@
         <v>24357</v>
       </c>
       <c r="O293">
-        <v>262.7581393439258</v>
+        <v>266.8637352711746</v>
       </c>
       <c r="P293" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>2</v>
       </c>
       <c r="C294">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>15230</v>
       </c>
       <c r="O294">
-        <v>137.8857518056467</v>
+        <v>151.0177281680893</v>
       </c>
       <c r="P294" t="inlineStr">
         <is>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="C304">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20436,7 +20436,7 @@
         <v>14148</v>
       </c>
       <c r="O304">
-        <v>558.3828102912072</v>
+        <v>572.5190839694657</v>
       </c>
       <c r="P304" t="inlineStr">
         <is>
@@ -20850,7 +20850,7 @@
         <v>2</v>
       </c>
       <c r="C311">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20898,7 +20898,7 @@
         <v>14948</v>
       </c>
       <c r="O311">
-        <v>274.2841851752743</v>
+        <v>280.974043350281</v>
       </c>
       <c r="P311" t="inlineStr">
         <is>
@@ -21510,7 +21510,7 @@
         <v>2</v>
       </c>
       <c r="C321">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>6816</v>
       </c>
       <c r="O321">
-        <v>762.9107981220657</v>
+        <v>777.5821596244132</v>
       </c>
       <c r="P321" t="inlineStr">
         <is>
@@ -21906,7 +21906,7 @@
         <v>2</v>
       </c>
       <c r="C327">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21954,7 +21954,7 @@
         <v>18217</v>
       </c>
       <c r="O327">
-        <v>197.6176099247955</v>
+        <v>214.0857440851952</v>
       </c>
       <c r="P327" t="inlineStr">
         <is>
@@ -22170,7 +22170,7 @@
         <v>2</v>
       </c>
       <c r="C331">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22218,7 +22218,7 @@
         <v>24703</v>
       </c>
       <c r="O331">
-        <v>352.1839452698053</v>
+        <v>376.472493219447</v>
       </c>
       <c r="P331" t="inlineStr">
         <is>
@@ -22698,7 +22698,7 @@
         <v>2</v>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22746,7 +22746,7 @@
         <v>1091</v>
       </c>
       <c r="O339">
-        <v>0</v>
+        <v>91.6590284142988</v>
       </c>
       <c r="P339" t="inlineStr">
         <is>
@@ -24612,7 +24612,7 @@
         <v>2</v>
       </c>
       <c r="C368">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24660,7 +24660,7 @@
         <v>10158</v>
       </c>
       <c r="O368">
-        <v>265.8003544004725</v>
+        <v>275.6448119708604</v>
       </c>
       <c r="P368" t="inlineStr">
         <is>
@@ -24678,7 +24678,7 @@
         <v>2</v>
       </c>
       <c r="C369">
-        <v>51664</v>
+        <v>52180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24726,7 +24726,7 @@
         <v>5367580</v>
       </c>
       <c r="O369">
-        <v>962.5194221604522</v>
+        <v>972.1326929454242</v>
       </c>
       <c r="P369" t="inlineStr">
         <is>
